--- a/Self Driving Car ND.xlsx
+++ b/Self Driving Car ND.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phuongpham/CarND/Projects/SelfDrivingCar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phuongpham/CarND/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1534,7 +1534,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F54" sqref="A1:F54"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1554,7 +1554,7 @@
       <c r="D1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>111</v>
       </c>
       <c r="F1" s="9"/>
@@ -2180,41 +2180,41 @@
     <hyperlink ref="A4" r:id="rId18"/>
     <hyperlink ref="A6" r:id="rId19"/>
     <hyperlink ref="D1" r:id="rId20" display="Github: https://github.com/udacity?utf8=%E2%9C%93&amp;q=carnd&amp;type=&amp;language="/>
-    <hyperlink ref="E1" r:id="rId21" display="https://github.com/udacity?utf8=%E2%9C%93&amp;q=carnd&amp;type=&amp;language="/>
-    <hyperlink ref="F1" r:id="rId22" display="https://github.com/udacity?utf8=%E2%9C%93&amp;q=carnd&amp;type=&amp;language="/>
-    <hyperlink ref="A13" r:id="rId23"/>
-    <hyperlink ref="A18" r:id="rId24"/>
-    <hyperlink ref="A20" r:id="rId25"/>
-    <hyperlink ref="A39" r:id="rId26"/>
-    <hyperlink ref="A32" r:id="rId27"/>
-    <hyperlink ref="A44" r:id="rId28"/>
-    <hyperlink ref="A37" r:id="rId29"/>
-    <hyperlink ref="E8" r:id="rId30"/>
-    <hyperlink ref="E9" r:id="rId31"/>
-    <hyperlink ref="E14" r:id="rId32"/>
-    <hyperlink ref="E15" r:id="rId33"/>
-    <hyperlink ref="E18" r:id="rId34"/>
-    <hyperlink ref="E16" r:id="rId35"/>
-    <hyperlink ref="E13" r:id="rId36"/>
-    <hyperlink ref="E37" r:id="rId37"/>
-    <hyperlink ref="E52" r:id="rId38"/>
-    <hyperlink ref="E38" r:id="rId39"/>
-    <hyperlink ref="E53" r:id="rId40"/>
-    <hyperlink ref="E54" r:id="rId41"/>
-    <hyperlink ref="E33" r:id="rId42"/>
-    <hyperlink ref="E46" r:id="rId43"/>
-    <hyperlink ref="E44" r:id="rId44"/>
-    <hyperlink ref="E45" r:id="rId45"/>
-    <hyperlink ref="E34" r:id="rId46"/>
-    <hyperlink ref="E39" r:id="rId47"/>
-    <hyperlink ref="D4" r:id="rId48"/>
-    <hyperlink ref="D5" r:id="rId49"/>
-    <hyperlink ref="E4" r:id="rId50"/>
-    <hyperlink ref="E5" r:id="rId51"/>
-    <hyperlink ref="E12" r:id="rId52"/>
-    <hyperlink ref="E17" r:id="rId53"/>
-    <hyperlink ref="E19" r:id="rId54"/>
-    <hyperlink ref="E25" r:id="rId55"/>
+    <hyperlink ref="F1" r:id="rId21" display="https://github.com/udacity?utf8=%E2%9C%93&amp;q=carnd&amp;type=&amp;language="/>
+    <hyperlink ref="A13" r:id="rId22"/>
+    <hyperlink ref="A18" r:id="rId23"/>
+    <hyperlink ref="A20" r:id="rId24"/>
+    <hyperlink ref="A39" r:id="rId25"/>
+    <hyperlink ref="A32" r:id="rId26"/>
+    <hyperlink ref="A44" r:id="rId27"/>
+    <hyperlink ref="A37" r:id="rId28"/>
+    <hyperlink ref="E8" r:id="rId29"/>
+    <hyperlink ref="E9" r:id="rId30"/>
+    <hyperlink ref="E14" r:id="rId31"/>
+    <hyperlink ref="E15" r:id="rId32"/>
+    <hyperlink ref="E18" r:id="rId33"/>
+    <hyperlink ref="E16" r:id="rId34"/>
+    <hyperlink ref="E13" r:id="rId35"/>
+    <hyperlink ref="E37" r:id="rId36"/>
+    <hyperlink ref="E52" r:id="rId37"/>
+    <hyperlink ref="E38" r:id="rId38"/>
+    <hyperlink ref="E53" r:id="rId39"/>
+    <hyperlink ref="E54" r:id="rId40"/>
+    <hyperlink ref="E33" r:id="rId41"/>
+    <hyperlink ref="E46" r:id="rId42"/>
+    <hyperlink ref="E44" r:id="rId43"/>
+    <hyperlink ref="E45" r:id="rId44"/>
+    <hyperlink ref="E34" r:id="rId45"/>
+    <hyperlink ref="E39" r:id="rId46"/>
+    <hyperlink ref="D4" r:id="rId47"/>
+    <hyperlink ref="D5" r:id="rId48"/>
+    <hyperlink ref="E4" r:id="rId49"/>
+    <hyperlink ref="E5" r:id="rId50"/>
+    <hyperlink ref="E12" r:id="rId51"/>
+    <hyperlink ref="E17" r:id="rId52"/>
+    <hyperlink ref="E19" r:id="rId53"/>
+    <hyperlink ref="E25" r:id="rId54"/>
+    <hyperlink ref="E1" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Self Driving Car ND.xlsx
+++ b/Self Driving Car ND.xlsx
@@ -5,11 +5,11 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phuongpham/CarND/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phuongpham/CarND/Projects/SelfDrivingCar/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="20" yWindow="1120" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="142">
   <si>
     <t>Self Driving Car Nano Degree</t>
   </si>
@@ -92,16 +92,10 @@
     <t>1. Review and update Finding Lane Lines project based on the comments and suggestions.</t>
   </si>
   <si>
-    <t>2. Finish lectures 4,5,6</t>
-  </si>
-  <si>
     <t>3. View Udacity course Introduction to Computer Vision</t>
   </si>
   <si>
     <t>4. Update Udacity profile</t>
-  </si>
-  <si>
-    <t>My goals for the upcoming week (2):</t>
   </si>
   <si>
     <t>Udacity Course: Artificial Intelligence for Robots</t>
@@ -1136,6 +1130,102 @@
   </si>
   <si>
     <t>Github Submit</t>
+  </si>
+  <si>
+    <t>My goals for week 2 (Jul 23-Jul 29):</t>
+  </si>
+  <si>
+    <t>My goals for week 3 (Jul 30-Aug 5):</t>
+  </si>
+  <si>
+    <t>My goals for week 4 (Aug 6-Aug12):</t>
+  </si>
+  <si>
+    <t>My goals for week 5 (Aug 13-Aug 19):</t>
+  </si>
+  <si>
+    <t>My goals for week 6 (Aug 20-Aug26):</t>
+  </si>
+  <si>
+    <t>My goals for week 7 (Aug27-Sep 2):</t>
+  </si>
+  <si>
+    <t>My goals for week 8 (Sep 3-Sep 9):</t>
+  </si>
+  <si>
+    <t>My goals for week 9 (Sep 10-Sep16):</t>
+  </si>
+  <si>
+    <t>My goals for week 10 (Sep 17-Sep 23):</t>
+  </si>
+  <si>
+    <t>My goals for week 11 (Sep 24-Sep 30):</t>
+  </si>
+  <si>
+    <t>My goals for week 12 (Oct 1-Oct 7):</t>
+  </si>
+  <si>
+    <t>My goals for week 13 (Oct 8-Oct 14):</t>
+  </si>
+  <si>
+    <t>2. Finish lecture 4: Introduction to Neural Network, lecture 5: MiniFlow, lecture 6: Introduction to Tensor Flow</t>
+  </si>
+  <si>
+    <t>1. Work on Project 2: Traffic Sign Classifier</t>
+  </si>
+  <si>
+    <t>1. Finish lecture 6: Introduction to Tensor Flow, Logistic Classifier, Optimization</t>
+  </si>
+  <si>
+    <t>1. Finish lecture 8: Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t>1. Finish lecture 7: Deep Neural Networks, Regularization</t>
+  </si>
+  <si>
+    <t>2. Read references:</t>
+  </si>
+  <si>
+    <t>1. Submit Project 2: Traffic Sign Classifier (Aug 21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Read reference: </t>
+  </si>
+  <si>
+    <t>2. Read lecture 10: Keras</t>
+  </si>
+  <si>
+    <t>1. Read lecture 11: Transfer Learning</t>
+  </si>
+  <si>
+    <t>1. Read lecture 11 (cont'd)</t>
+  </si>
+  <si>
+    <t>2. Work on project 3: Behavior Cloning</t>
+  </si>
+  <si>
+    <t>1. Submit project 3: Behavior Cloning (Sep 11)</t>
+  </si>
+  <si>
+    <t>1. Submit Project 4: Advanced Lane Finding (Sep 25)</t>
+  </si>
+  <si>
+    <t>1. Submit Project 5: Vehicle Detection and Tracking (Oct 9)</t>
+  </si>
+  <si>
+    <t>2. Review  project 3</t>
+  </si>
+  <si>
+    <t>2. Read lecture 14: Machine Learning and Stanley, 15: Support Vector Machine, 16: Decision  Trees</t>
+  </si>
+  <si>
+    <t>2. Read reference: HOG, DNNs</t>
+  </si>
+  <si>
+    <t>1. Work on Project 5: Vehicle Detection and Tracking</t>
+  </si>
+  <si>
+    <t>1. Work on Project 4: Advanced Lane Finding</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1241,18 +1331,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1531,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A65" sqref="A65:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1546,25 +1640,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>27</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>29</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -1579,7 +1673,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>14</v>
@@ -1593,13 +1687,13 @@
         <v>42936</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1609,7 +1703,7 @@
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1621,28 +1715,28 @@
         <v>42968</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="12"/>
       <c r="D7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="B8" s="12"/>
       <c r="D8" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>18</v>
@@ -1651,25 +1745,25 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="12"/>
       <c r="E9" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="B10" s="12"/>
       <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B11" s="12"/>
       <c r="D11" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1677,7 +1771,7 @@
       <c r="B12" s="12"/>
       <c r="C12" s="7"/>
       <c r="E12" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -1688,40 +1782,40 @@
         <v>42989</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
       <c r="D14" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="12"/>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="12"/>
       <c r="E16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" s="12"/>
       <c r="E17" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="112" x14ac:dyDescent="0.2">
@@ -1732,23 +1826,23 @@
         <v>43003</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B19" s="12"/>
       <c r="C19" s="7"/>
       <c r="D19" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="80" x14ac:dyDescent="0.2">
@@ -1759,53 +1853,53 @@
         <v>43017</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D21" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="D24" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1822,20 +1916,20 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E28" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E29" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>30</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
@@ -1850,7 +1944,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>14</v>
@@ -1858,139 +1952,139 @@
     </row>
     <row r="32" spans="1:5" ht="112" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="C33" s="7"/>
       <c r="E33" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="C34" s="7"/>
       <c r="E34" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="D35" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D36" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="C38" s="7"/>
       <c r="E38" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D40" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E40" s="9"/>
     </row>
     <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="D41" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="D42" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="D43" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" ht="96" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="C45" s="7"/>
       <c r="E45" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="D46" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="D47" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E47" s="9"/>
     </row>
@@ -2002,10 +2096,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="17"/>
@@ -2020,7 +2114,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>14</v>
@@ -2032,132 +2126,697 @@
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E53" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E54" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="16"/>
+      <c r="B55" s="18"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
+      <c r="A61" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
+      <c r="A63" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="15" t="s">
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+    </row>
+    <row r="75" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+    </row>
+    <row r="81" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+    </row>
+    <row r="87" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+    </row>
+    <row r="91" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="19"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+    </row>
+    <row r="98" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+    </row>
+    <row r="106" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+    </row>
+    <row r="110" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="18"/>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B117" s="19"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119" s="18"/>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B123" s="18"/>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B128" s="18"/>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A66:D66"/>
+  <mergeCells count="83">
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A69:D69"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A59:D59"/>
     <mergeCell ref="A60:D60"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B50:E50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" display="CS231n Convolutional Neural Networks for Visual Recognition"/>
@@ -2215,6 +2874,21 @@
     <hyperlink ref="E19" r:id="rId53"/>
     <hyperlink ref="E25" r:id="rId54"/>
     <hyperlink ref="E1" r:id="rId55"/>
+    <hyperlink ref="A85" r:id="rId56" display="CS231n Convolutional Neural Networks for Visual Recognition"/>
+    <hyperlink ref="A72" r:id="rId57" display="Computer Vision: Algorithms and Applications"/>
+    <hyperlink ref="A79" r:id="rId58" display="Deep Learning, by Goodfellow, Bengio, and Courville."/>
+    <hyperlink ref="A84" r:id="rId59" display="CS 143 Introduction to Computer Vision"/>
+    <hyperlink ref="A78" r:id="rId60"/>
+    <hyperlink ref="A73" r:id="rId61"/>
+    <hyperlink ref="A96" r:id="rId62" display="CS231n Convolutional Neural Networks for Visual Recognition"/>
+    <hyperlink ref="A94" r:id="rId63"/>
+    <hyperlink ref="A100" r:id="rId64"/>
+    <hyperlink ref="A101" r:id="rId65"/>
+    <hyperlink ref="A102" r:id="rId66"/>
+    <hyperlink ref="A103" r:id="rId67"/>
+    <hyperlink ref="A116" r:id="rId68"/>
+    <hyperlink ref="A117" r:id="rId69"/>
+    <hyperlink ref="A126" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Self Driving Car ND.xlsx
+++ b/Self Driving Car ND.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="143">
   <si>
     <t>Self Driving Car Nano Degree</t>
   </si>
@@ -1180,9 +1180,6 @@
     <t>1. Finish lecture 8: Convolutional Neural Networks</t>
   </si>
   <si>
-    <t>1. Finish lecture 7: Deep Neural Networks, Regularization</t>
-  </si>
-  <si>
     <t>2. Read references:</t>
   </si>
   <si>
@@ -1226,6 +1223,12 @@
   </si>
   <si>
     <t>1. Work on Project 4: Advanced Lane Finding</t>
+  </si>
+  <si>
+    <t>2. Finish lecture 7: Deep Neural Networks, Regularization</t>
+  </si>
+  <si>
+    <t>3. Read references:</t>
   </si>
 </sst>
 </file>
@@ -1625,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:D65"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2240,15 +2243,15 @@
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
         <v>124</v>
       </c>
@@ -2258,119 +2261,119 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="16" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
+      <c r="A72" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B73" s="19"/>
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-    </row>
-    <row r="75" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
+      <c r="A74" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
+      <c r="A76" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
-        <v>127</v>
-      </c>
+      <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
+    <row r="78" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
+      <c r="A79" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
+      <c r="A80" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
     </row>
-    <row r="81" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
+      <c r="A82" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
-        <v>127</v>
-      </c>
+      <c r="A83" s="16"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
+    <row r="84" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
+      <c r="A85" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="16"/>
@@ -2378,41 +2381,43 @@
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
     </row>
-    <row r="87" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+    </row>
+    <row r="88" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
+      <c r="A89" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="16"/>
+      <c r="A90" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
     </row>
-    <row r="91" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="16" t="s">
@@ -2423,118 +2428,116 @@
       <c r="D92" s="16"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" s="19"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+    </row>
+    <row r="95" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-    </row>
-    <row r="98" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
+      <c r="A97" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B97" s="19"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="20"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="20"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+    </row>
+    <row r="103" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="20"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="16"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="16"/>
+      <c r="A105" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
     </row>
-    <row r="106" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+    </row>
+    <row r="107" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="16" t="s">
@@ -2545,140 +2548,140 @@
       <c r="D108" s="16"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="16"/>
+      <c r="A109" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
     </row>
-    <row r="110" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
+      <c r="A111" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
+      <c r="A113" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B113" s="19"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18"/>
-      <c r="D114" s="18"/>
+      <c r="A114" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="19"/>
+      <c r="C114" s="19"/>
+      <c r="D114" s="19"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="s">
-        <v>141</v>
-      </c>
+      <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
+      <c r="A116" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="18"/>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19"/>
+      <c r="A117" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="16"/>
+      <c r="A118" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" s="18"/>
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B120" s="16"/>
-      <c r="C120" s="16"/>
-      <c r="D120" s="16"/>
+      <c r="A120" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="18"/>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="16"/>
+      <c r="A122" s="16" t="s">
+        <v>138</v>
+      </c>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B123" s="18"/>
-      <c r="C123" s="18"/>
-      <c r="D123" s="18"/>
+      <c r="A123" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="16" t="s">
-        <v>140</v>
-      </c>
+      <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B125" s="16"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
+      <c r="A125" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125" s="18"/>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B126" s="19"/>
-      <c r="C126" s="19"/>
-      <c r="D126" s="19"/>
+      <c r="A126" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="16"/>
@@ -2687,17 +2690,13 @@
       <c r="D127" s="16"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B128" s="18"/>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="16" t="s">
-        <v>136</v>
-      </c>
+      <c r="A129" s="16"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
@@ -2714,93 +2713,72 @@
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="16"/>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="16"/>
-      <c r="B133" s="16"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="16"/>
-      <c r="B134" s="16"/>
-      <c r="C134" s="16"/>
-      <c r="D134" s="16"/>
-    </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="80">
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
     <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A80:D80"/>
     <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A73:D73"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A128:D128"/>
     <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A131:D131"/>
     <mergeCell ref="A121:D121"/>
     <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
     <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A87:D87"/>
     <mergeCell ref="A89:D89"/>
     <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A92:D92"/>
     <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A116:D116"/>
     <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A106:D106"/>
     <mergeCell ref="A108:D108"/>
     <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A110:D110"/>
     <mergeCell ref="A112:D112"/>
     <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A69:D69"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A59:D59"/>
@@ -2874,21 +2852,21 @@
     <hyperlink ref="E19" r:id="rId53"/>
     <hyperlink ref="E25" r:id="rId54"/>
     <hyperlink ref="E1" r:id="rId55"/>
-    <hyperlink ref="A85" r:id="rId56" display="CS231n Convolutional Neural Networks for Visual Recognition"/>
-    <hyperlink ref="A72" r:id="rId57" display="Computer Vision: Algorithms and Applications"/>
-    <hyperlink ref="A79" r:id="rId58" display="Deep Learning, by Goodfellow, Bengio, and Courville."/>
-    <hyperlink ref="A84" r:id="rId59" display="CS 143 Introduction to Computer Vision"/>
-    <hyperlink ref="A78" r:id="rId60"/>
-    <hyperlink ref="A73" r:id="rId61"/>
-    <hyperlink ref="A96" r:id="rId62" display="CS231n Convolutional Neural Networks for Visual Recognition"/>
-    <hyperlink ref="A94" r:id="rId63"/>
-    <hyperlink ref="A100" r:id="rId64"/>
-    <hyperlink ref="A101" r:id="rId65"/>
-    <hyperlink ref="A102" r:id="rId66"/>
-    <hyperlink ref="A103" r:id="rId67"/>
-    <hyperlink ref="A116" r:id="rId68"/>
-    <hyperlink ref="A117" r:id="rId69"/>
-    <hyperlink ref="A126" r:id="rId70"/>
+    <hyperlink ref="A82" r:id="rId56" display="CS231n Convolutional Neural Networks for Visual Recognition"/>
+    <hyperlink ref="A76" r:id="rId57" display="Deep Learning, by Goodfellow, Bengio, and Courville."/>
+    <hyperlink ref="A81" r:id="rId58" display="CS 143 Introduction to Computer Vision"/>
+    <hyperlink ref="A75" r:id="rId59"/>
+    <hyperlink ref="A93" r:id="rId60" display="CS231n Convolutional Neural Networks for Visual Recognition"/>
+    <hyperlink ref="A91" r:id="rId61"/>
+    <hyperlink ref="A97" r:id="rId62"/>
+    <hyperlink ref="A98" r:id="rId63"/>
+    <hyperlink ref="A99" r:id="rId64"/>
+    <hyperlink ref="A100" r:id="rId65"/>
+    <hyperlink ref="A113" r:id="rId66"/>
+    <hyperlink ref="A114" r:id="rId67"/>
+    <hyperlink ref="A123" r:id="rId68"/>
+    <hyperlink ref="A73" r:id="rId69" display="Computer Vision: Algorithms and Applications"/>
+    <hyperlink ref="A74" r:id="rId70"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Self Driving Car ND.xlsx
+++ b/Self Driving Car ND.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1120" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="145">
   <si>
     <t>Self Driving Car Nano Degree</t>
   </si>
@@ -1229,6 +1229,12 @@
   </si>
   <si>
     <t>3. Read references:</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/get_started/</t>
+  </si>
+  <si>
+    <t>https://www.tensorflow.org/tutorials/layers</t>
   </si>
 </sst>
 </file>
@@ -1335,21 +1341,21 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1628,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1643,11 +1649,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
       <c r="D1" s="9" t="s">
         <v>80</v>
       </c>
@@ -1660,12 +1666,12 @@
       <c r="A2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
@@ -1931,12 +1937,12 @@
       <c r="A30" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
@@ -2101,12 +2107,12 @@
       <c r="A50" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
@@ -2150,52 +2156,52 @@
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="18" t="s">
@@ -2206,42 +2212,42 @@
       <c r="D63" s="18"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="16" t="s">
+      <c r="A67" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
     </row>
     <row r="69" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18" t="s">
@@ -2252,533 +2258,490 @@
       <c r="D69" s="18"/>
     </row>
     <row r="70" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
+      <c r="A70" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
+      <c r="A71" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="16" t="s">
+      <c r="A72" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-    </row>
-    <row r="78" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="18" t="s">
+      <c r="A77" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+    </row>
+    <row r="79" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-    </row>
-    <row r="84" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="18" t="s">
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+    </row>
+    <row r="86" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="16" t="s">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-    </row>
-    <row r="88" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="18" t="s">
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+    </row>
+    <row r="90" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="19" t="s">
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-    </row>
-    <row r="95" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="18" t="s">
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+    </row>
+    <row r="97" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="16" t="s">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="20" t="s">
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B98" s="20"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="20"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="20" t="s">
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="16"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="16"/>
+      <c r="A102" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
     </row>
-    <row r="103" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="18" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+    </row>
+    <row r="105" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="16" t="s">
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="16" t="s">
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-    </row>
-    <row r="107" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="18" t="s">
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+    </row>
+    <row r="109" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="16" t="s">
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="16" t="s">
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="18" t="s">
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="16" t="s">
+      <c r="B113" s="18"/>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="19" t="s">
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="19" t="s">
+      <c r="B115" s="15"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="18" t="s">
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="16" t="s">
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="B117" s="16"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="16" t="s">
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B118" s="16"/>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="16"/>
-      <c r="B119" s="16"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="18" t="s">
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="17"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="18"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="16" t="s">
+      <c r="B122" s="18"/>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="B121" s="16"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="16" t="s">
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="B122" s="16"/>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="19" t="s">
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="16"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16"/>
-      <c r="D124" s="16"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="18" t="s">
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="17"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B125" s="18"/>
-      <c r="C125" s="18"/>
-      <c r="D125" s="18"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="16" t="s">
+      <c r="B127" s="18"/>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B126" s="16"/>
-      <c r="C126" s="16"/>
-      <c r="D126" s="16"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="16"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="16"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="16"/>
-      <c r="D128" s="16"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="16"/>
-      <c r="B129" s="16"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="16"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="16"/>
-      <c r="D130" s="16"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="16"/>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
+      <c r="A131" s="17"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="17"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="17"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A68:D68"/>
-    <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A127:D127"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A131:D131"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A122:D122"/>
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A123:D123"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A119:D119"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A87:D87"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A88:D88"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
+  <mergeCells count="82">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B50:E50"/>
     <mergeCell ref="A67:D67"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A59:D59"/>
@@ -2790,11 +2753,72 @@
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A65:D65"/>
     <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A131:D131"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A123:D123"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A68:D68"/>
+    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A119:D119"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A122:D122"/>
+    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A79:D79"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E11" r:id="rId1" display="CS231n Convolutional Neural Networks for Visual Recognition"/>
@@ -2852,21 +2876,23 @@
     <hyperlink ref="E19" r:id="rId53"/>
     <hyperlink ref="E25" r:id="rId54"/>
     <hyperlink ref="E1" r:id="rId55"/>
-    <hyperlink ref="A82" r:id="rId56" display="CS231n Convolutional Neural Networks for Visual Recognition"/>
+    <hyperlink ref="A83" r:id="rId56" display="CS231n Convolutional Neural Networks for Visual Recognition"/>
     <hyperlink ref="A76" r:id="rId57" display="Deep Learning, by Goodfellow, Bengio, and Courville."/>
-    <hyperlink ref="A81" r:id="rId58" display="CS 143 Introduction to Computer Vision"/>
+    <hyperlink ref="A82" r:id="rId58" display="CS 143 Introduction to Computer Vision"/>
     <hyperlink ref="A75" r:id="rId59"/>
-    <hyperlink ref="A93" r:id="rId60" display="CS231n Convolutional Neural Networks for Visual Recognition"/>
-    <hyperlink ref="A91" r:id="rId61"/>
-    <hyperlink ref="A97" r:id="rId62"/>
-    <hyperlink ref="A98" r:id="rId63"/>
-    <hyperlink ref="A99" r:id="rId64"/>
-    <hyperlink ref="A100" r:id="rId65"/>
-    <hyperlink ref="A113" r:id="rId66"/>
-    <hyperlink ref="A114" r:id="rId67"/>
-    <hyperlink ref="A123" r:id="rId68"/>
+    <hyperlink ref="A95" r:id="rId60" display="CS231n Convolutional Neural Networks for Visual Recognition"/>
+    <hyperlink ref="A93" r:id="rId61"/>
+    <hyperlink ref="A99" r:id="rId62"/>
+    <hyperlink ref="A100" r:id="rId63"/>
+    <hyperlink ref="A101" r:id="rId64"/>
+    <hyperlink ref="A102" r:id="rId65"/>
+    <hyperlink ref="A115" r:id="rId66"/>
+    <hyperlink ref="A116" r:id="rId67"/>
+    <hyperlink ref="A125" r:id="rId68"/>
     <hyperlink ref="A73" r:id="rId69" display="Computer Vision: Algorithms and Applications"/>
     <hyperlink ref="A74" r:id="rId70"/>
+    <hyperlink ref="A77" r:id="rId71"/>
+    <hyperlink ref="A84" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
